--- a/operativo_call/Dotacion_Call.xlsx
+++ b/operativo_call/Dotacion_Call.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustín Gauna\Documents\GitHub\portafolio\operativo_call\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B6A6E-21EC-42E3-AF4D-468DDC4C144B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3830BD-4635-4565-A4E2-8777733BCD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DDCCD30-DBE6-4AB9-8F73-0F70484ADDB2}"/>
   </bookViews>
@@ -694,17 +694,7 @@
     <cellStyle name="Normal 60" xfId="6" xr:uid="{48F8A163-64F7-4716-999B-BAD23EDC35A4}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1860,37 +1850,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34430417-56A6-413F-A22F-C3A500174402}" name="Dotacion_POINT" displayName="Dotacion_POINT" ref="A1:Z16" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34430417-56A6-413F-A22F-C3A500174402}" name="Dotacion_POINT" displayName="Dotacion_POINT" ref="A1:Z16" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="43">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z16">
     <sortCondition descending="1" ref="L1:L16"/>
   </sortState>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{BBC4243E-7ECE-45D9-804D-0A12EBB9C7AD}" name="Mes Dotacion" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{C4BE2DCE-375A-4675-8AA5-1CCB55A51161}" name="Antiguedad (Meses)" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{23DF18C7-727E-45F2-8C2B-66F902F333A3}" name="Apellido y Nombre" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{24E6A4B4-19FB-471B-A36A-7D8807000291}" name="Apellido" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{4A13189C-56F2-4D68-A8D7-FA4AE8D60E92}" name="Nombre" dataDxfId="39"/>
-    <tableColumn id="29" xr3:uid="{6EC68E8D-1F0E-4E8A-81FE-314B7955326C}" name="Documento" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{5F9CAE04-976C-4D83-A6AD-B4C9B503BDF8}" name="CUIL/CUIT" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{619C1781-C4F0-49F4-82A4-83D372DAC86A}" name="Nacionalidad" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{A998981F-BBF9-4335-AAC7-B734BC7B0E4C}" name="Legajo" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{495F9100-34C4-450E-B5AD-D20F0A4B8B61}" name="Puesto" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{2E411E1C-E8FB-4904-BE48-0B6E37313CF6}" name="Fecha Nacimiento" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{0F95CDA9-71BD-47FF-AEE1-9F3529A0489A}" name="Fecha Ingreso EMPRESA" dataDxfId="32"/>
-    <tableColumn id="28" xr3:uid="{F0DE8234-6A1B-42C0-B082-D2254B51A75B}" name="Fecha Ingreso CAMPAÑA" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{EFF3B866-20F6-4A61-B3AC-43C59750A8A8}" name="Supervisor" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{0463877A-25BC-48AE-B1EC-1AB54567C359}" name="Coordinador" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{DBFC613C-95B2-420A-B5BD-2089B4D19A74}" name="Turno" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{43EC88E4-6F71-43B4-A88B-7BE7FB60CF53}" name="Jornada" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{CF4C0243-1318-4B2F-A993-8B16C2AA15C1}" name="Carga Horaria" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{8E7596E7-CCA3-4701-998D-2430F34FE31C}" name="Campaña" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{9BB92B5E-09A7-425F-9B99-0D4C660BD2F4}" name="ID EMPRESA" dataDxfId="24"/>
-    <tableColumn id="30" xr3:uid="{E37DB794-EB87-4200-B462-7B0B3493998A}" name="Estado" dataDxfId="23"/>
-    <tableColumn id="32" xr3:uid="{79834A80-A693-4FB6-888A-BED13803A443}" name="Fecha Baja o Lic" dataDxfId="22"/>
-    <tableColumn id="33" xr3:uid="{28BA0D68-C0DB-4D54-8CD0-CEB99006E58B}" name="Proporcional x Presentismo" dataDxfId="21" dataCellStyle="Porcentaje"/>
-    <tableColumn id="27" xr3:uid="{D6D07DA9-BC36-4156-8739-0F47A147AF89}" name="Proporcional x Curva" dataDxfId="20" dataCellStyle="Porcentaje"/>
-    <tableColumn id="35" xr3:uid="{206E66D9-33E5-4BE8-B883-9F2066768A81}" name="MODALIDAD DE TRABAJO" dataDxfId="19"/>
-    <tableColumn id="42" xr3:uid="{ABCFAE03-42AB-4ABF-A5CF-AA7856CC7854}" name="User Plataforma" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{BBC4243E-7ECE-45D9-804D-0A12EBB9C7AD}" name="Mes Dotacion" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{C4BE2DCE-375A-4675-8AA5-1CCB55A51161}" name="Antiguedad (Meses)" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{23DF18C7-727E-45F2-8C2B-66F902F333A3}" name="Apellido y Nombre" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{24E6A4B4-19FB-471B-A36A-7D8807000291}" name="Apellido" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{4A13189C-56F2-4D68-A8D7-FA4AE8D60E92}" name="Nombre" dataDxfId="38"/>
+    <tableColumn id="29" xr3:uid="{6EC68E8D-1F0E-4E8A-81FE-314B7955326C}" name="Documento" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{5F9CAE04-976C-4D83-A6AD-B4C9B503BDF8}" name="CUIL/CUIT" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{619C1781-C4F0-49F4-82A4-83D372DAC86A}" name="Nacionalidad" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{A998981F-BBF9-4335-AAC7-B734BC7B0E4C}" name="Legajo" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{495F9100-34C4-450E-B5AD-D20F0A4B8B61}" name="Puesto" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{2E411E1C-E8FB-4904-BE48-0B6E37313CF6}" name="Fecha Nacimiento" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{0F95CDA9-71BD-47FF-AEE1-9F3529A0489A}" name="Fecha Ingreso EMPRESA" dataDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{F0DE8234-6A1B-42C0-B082-D2254B51A75B}" name="Fecha Ingreso CAMPAÑA" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{EFF3B866-20F6-4A61-B3AC-43C59750A8A8}" name="Supervisor" dataDxfId="29"/>
+    <tableColumn id="26" xr3:uid="{0463877A-25BC-48AE-B1EC-1AB54567C359}" name="Coordinador" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{DBFC613C-95B2-420A-B5BD-2089B4D19A74}" name="Turno" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{43EC88E4-6F71-43B4-A88B-7BE7FB60CF53}" name="Jornada" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{CF4C0243-1318-4B2F-A993-8B16C2AA15C1}" name="Carga Horaria" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{8E7596E7-CCA3-4701-998D-2430F34FE31C}" name="Campaña" dataDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{9BB92B5E-09A7-425F-9B99-0D4C660BD2F4}" name="ID EMPRESA" dataDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{E37DB794-EB87-4200-B462-7B0B3493998A}" name="Estado" dataDxfId="22"/>
+    <tableColumn id="32" xr3:uid="{79834A80-A693-4FB6-888A-BED13803A443}" name="Fecha Baja o Lic" dataDxfId="21"/>
+    <tableColumn id="33" xr3:uid="{28BA0D68-C0DB-4D54-8CD0-CEB99006E58B}" name="Proporcional x Presentismo" dataDxfId="20" dataCellStyle="Porcentaje"/>
+    <tableColumn id="27" xr3:uid="{D6D07DA9-BC36-4156-8739-0F47A147AF89}" name="Proporcional x Curva" dataDxfId="19" dataCellStyle="Porcentaje"/>
+    <tableColumn id="35" xr3:uid="{206E66D9-33E5-4BE8-B883-9F2066768A81}" name="MODALIDAD DE TRABAJO" dataDxfId="18"/>
+    <tableColumn id="42" xr3:uid="{ABCFAE03-42AB-4ABF-A5CF-AA7856CC7854}" name="User Plataforma" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3516,10 +3506,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:Z1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2570"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="2560"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G16">
     <cfRule type="duplicateValues" dxfId="15" priority="2538"/>
@@ -3558,9 +3545,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE8AC4A-163A-468B-942C-EBA961B08C4D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3578,7 +3567,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
-        <v>45414</v>
+        <v>45385</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -3586,7 +3575,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
-        <v>45415</v>
+        <v>45386</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -3594,7 +3583,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
-        <v>45418</v>
+        <v>45387</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
@@ -3602,7 +3591,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
-        <v>45419</v>
+        <v>45390</v>
       </c>
       <c r="B5" s="3">
         <v>6</v>
@@ -3610,7 +3599,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
-        <v>45420</v>
+        <v>45391</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -3618,7 +3607,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
-        <v>45421</v>
+        <v>45392</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -3626,7 +3615,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
-        <v>45422</v>
+        <v>45393</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -3634,7 +3623,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
-        <v>45425</v>
+        <v>45394</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -3642,7 +3631,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
-        <v>45426</v>
+        <v>45397</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
@@ -3650,7 +3639,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
-        <v>45427</v>
+        <v>45398</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -3658,7 +3647,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <v>45428</v>
+        <v>45399</v>
       </c>
       <c r="B12" s="3">
         <v>6</v>
@@ -3666,7 +3655,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <v>45429</v>
+        <v>45400</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -3674,7 +3663,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <v>45432</v>
+        <v>45401</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -3682,7 +3671,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <v>45433</v>
+        <v>45404</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -3690,66 +3679,50 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <v>45434</v>
+        <v>45405</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <v>45435</v>
+        <v>45406</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <v>45436</v>
+        <v>45407</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
-        <v>45439</v>
+        <v>45408</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <v>45440</v>
+        <v>45411</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <v>45441</v>
+        <v>45412</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>45442</v>
-      </c>
-      <c r="B22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>45443</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
